--- a/pages/setting/employees/templates/employees_import_template.xlsx
+++ b/pages/setting/employees/templates/employees_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sales\pages\setting\employees\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{248AF0B8-13DD-4A68-AB5E-6B4CAFA6F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F64D26C-CBE9-4591-BA3E-5DEDEA1178EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="105" windowWidth="35070" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="29835" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>2024-01-01</t>
   </si>
@@ -86,22 +86,22 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Position*</t>
-  </si>
-  <si>
-    <t>Phone*</t>
-  </si>
-  <si>
-    <t>Company Email*</t>
-  </si>
-  <si>
-    <t>Personal Email*</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Company Email</t>
+  </si>
+  <si>
+    <t>Personal Email</t>
   </si>
   <si>
     <t>Birth Date</t>
   </si>
   <si>
-    <t>Gender*</t>
+    <t>Gender</t>
   </si>
   <si>
     <t>Nickname EN</t>
@@ -110,10 +110,10 @@
     <t>Nickname TH</t>
   </si>
   <si>
-    <t>Last Name EN*</t>
-  </si>
-  <si>
-    <t>First Name EN*</t>
+    <t>Last Name EN</t>
+  </si>
+  <si>
+    <t>First Name EN</t>
   </si>
   <si>
     <t>Last Name TH*</t>
@@ -122,7 +122,7 @@
     <t>First Name TH*</t>
   </si>
   <si>
-    <t>คำแนะนำ: ช่องที่มีเครื่องหมาย * จำเป็นต้องกรอก, Gender ต้องเลือกจาก (ชาย,หญิง,อื่นๆ), Team และ Supervisor ต้องตรงกับที่มีในระบบ, วันที่ให้กรอกในรูปแบบ YYYY-MM-DD</t>
+    <t>คำแนะนำ: ช่องที่มีเครื่องหมาย * จำเป็นต้องกรอก (First Name TH และ Last Name TH), Gender ต้องเลือกจาก (ชาย,หญิง,อื่นๆ), Team และ Supervisor ต้องตรงกับที่มีในระบบ, วันที่ให้กรอกในรูปแบบ YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
@@ -502,20 +502,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -656,47 +655,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
